--- a/Database Material/Spreadsheets/Subject.xlsx
+++ b/Database Material/Spreadsheets/Subject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luke/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/personal website/personal-website/personal-website/Database Material/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB7AEE6D-D5FD-7340-B62A-38E8E4CF1E72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B746E8-7354-C147-BB97-7B552A9F2FB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="9660" windowWidth="15200" windowHeight="9600"/>
+    <workbookView xWindow="23480" yWindow="1740" windowWidth="11120" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,9 @@
     <t>Computer Science and Information</t>
   </si>
   <si>
+    <t>Design Information Technology</t>
+  </si>
+  <si>
     <t>Mathematics</t>
   </si>
   <si>
@@ -37,12 +40,12 @@
     <t>Automotive Studies</t>
   </si>
   <si>
+    <t>Digital Information Technology and Computer Science</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>Introduction To Computer Science</t>
-  </si>
-  <si>
     <t>Cybersecurity Fundamentals</t>
   </si>
   <si>
@@ -52,10 +55,7 @@
     <t>EngineeringMath Foundations</t>
   </si>
   <si>
-    <t>Digital Information Technology and Computer Science</t>
-  </si>
-  <si>
-    <t>Design Information Technology</t>
+    <t>Introduction to Computer Science</t>
   </si>
 </sst>
 </file>
@@ -899,7 +899,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -941,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -957,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -965,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -973,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -981,7 +981,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -989,7 +989,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Database Material/Spreadsheets/Subject.xlsx
+++ b/Database Material/Spreadsheets/Subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/personal website/personal-website/personal-website/Database Material/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B746E8-7354-C147-BB97-7B552A9F2FB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CAFEF91-BB31-EF41-98A2-5A62C6A718B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23480" yWindow="1740" windowWidth="11120" windowHeight="17440"/>
   </bookViews>
@@ -52,10 +52,10 @@
     <t>Engineering Technology</t>
   </si>
   <si>
-    <t>EngineeringMath Foundations</t>
-  </si>
-  <si>
     <t>Introduction to Computer Science</t>
+  </si>
+  <si>
+    <t>Engineering Math Foundations</t>
   </si>
 </sst>
 </file>
@@ -899,7 +899,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -973,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
